--- a/Output/Table_T.xlsx
+++ b/Output/Table_T.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>model</t>
   </si>
@@ -38,15 +38,15 @@
     <t>AIC</t>
   </si>
   <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
     <t>ER</t>
   </si>
   <si>
-    <t>prob</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>deltaAIC</t>
   </si>
   <si>
@@ -161,6 +161,12 @@
     <t>37</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>a - net chick</t>
   </si>
   <si>
@@ -215,7 +221,7 @@
     <t>d14_rear_nest_brood_size</t>
   </si>
   <si>
-    <t>16.553</t>
+    <t>16.555</t>
   </si>
   <si>
     <t>-0.063</t>
@@ -224,7 +230,7 @@
     <t>0.479</t>
   </si>
   <si>
-    <t>0.272</t>
+    <t>0.273</t>
   </si>
   <si>
     <t>0.074</t>
@@ -251,25 +257,28 @@
     <t>55%</t>
   </si>
   <si>
-    <t>16.858</t>
-  </si>
-  <si>
-    <t>-0.034</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>61%</t>
+    <t>16.918</t>
+  </si>
+  <si>
+    <t>-0.042</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>52%</t>
   </si>
 </sst>
 </file>
@@ -364,22 +373,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" t="n">
-        <v>16.304</v>
+        <v>16.308</v>
       </c>
       <c r="G2" t="n">
-        <v>16.8</v>
+        <v>16.795</v>
       </c>
       <c r="H2" t="n">
         <v>2550.0</v>
@@ -390,11 +399,11 @@
       <c r="J2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#N/A</v>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -405,16 +414,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
         <v>-0.074</v>
@@ -446,22 +455,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.527</v>
+        <v>0.525</v>
       </c>
       <c r="H4" t="e">
         <v>#N/A</v>
@@ -487,22 +496,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="G5" t="n">
-        <v>0.367</v>
+        <v>0.363</v>
       </c>
       <c r="H5" t="e">
         <v>#N/A</v>
@@ -528,22 +537,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.157</v>
+        <v>-0.159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.311</v>
+        <v>0.306</v>
       </c>
       <c r="H6" t="e">
         <v>#N/A</v>
@@ -569,16 +578,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
@@ -610,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
@@ -651,16 +660,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
@@ -692,16 +701,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
@@ -733,16 +742,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
@@ -774,16 +783,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
@@ -815,16 +824,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
@@ -856,16 +865,16 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
@@ -897,40 +906,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" t="n">
-        <v>16.584</v>
+        <v>16.639</v>
       </c>
       <c r="G15" t="n">
-        <v>17.141</v>
+        <v>17.209</v>
       </c>
       <c r="H15" t="n">
         <v>2550.0</v>
       </c>
       <c r="I15" t="n">
-        <v>4246.426112695946</v>
+        <v>4052.5338803138693</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K15" t="e">
-        <v>#N/A</v>
+      <c r="K15" t="n">
+        <v>0.0</v>
       </c>
       <c r="L15" t="e">
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M15" t="n">
-        <v>252.9509955130975</v>
+        <v>59.05876313102044</v>
       </c>
     </row>
     <row r="16">
@@ -938,22 +947,22 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.047</v>
+        <v>-0.054</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="H16" t="e">
         <v>#N/A</v>
@@ -979,22 +988,22 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" t="n">
-        <v>0.427</v>
+        <v>0.435</v>
       </c>
       <c r="G17" t="n">
-        <v>0.525</v>
+        <v>0.527</v>
       </c>
       <c r="H17" t="e">
         <v>#N/A</v>
@@ -1020,22 +1029,22 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" t="n">
-        <v>0.167</v>
+        <v>0.16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.352</v>
+        <v>0.357</v>
       </c>
       <c r="H18" t="e">
         <v>#N/A</v>
@@ -1061,22 +1070,22 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.183</v>
+        <v>-0.165</v>
       </c>
       <c r="G19" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="H19" t="e">
         <v>#N/A</v>
@@ -1102,16 +1111,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
@@ -1143,16 +1152,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -1184,10 +1193,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
@@ -1225,10 +1234,10 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>63</v>
@@ -1266,16 +1275,16 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -1307,16 +1316,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
@@ -1348,28 +1357,28 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16.304</v>
-      </c>
-      <c r="G26" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2550.0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3993.475117182849</v>
+        <v>79</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -1380,8 +1389,8 @@
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.0</v>
+      <c r="M26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
@@ -1389,22 +1398,22 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.074</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.051</v>
+        <v>88</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H27" t="e">
         <v>#N/A</v>
@@ -1430,10 +1439,10 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -1442,28 +1451,28 @@
         <v>69</v>
       </c>
       <c r="F28" t="n">
-        <v>0.433</v>
+        <v>16.308</v>
       </c>
       <c r="G28" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#N/A</v>
+        <v>16.795</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2550.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3993.475117182849</v>
       </c>
       <c r="J28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
+      <c r="K28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1471,10 +1480,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
@@ -1483,10 +1492,10 @@
         <v>70</v>
       </c>
       <c r="F29" t="n">
-        <v>0.179</v>
+        <v>-0.074</v>
       </c>
       <c r="G29" t="n">
-        <v>0.367</v>
+        <v>-0.051</v>
       </c>
       <c r="H29" t="e">
         <v>#N/A</v>
@@ -1512,10 +1521,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
@@ -1524,10 +1533,10 @@
         <v>71</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.157</v>
+        <v>0.432</v>
       </c>
       <c r="G30" t="n">
-        <v>0.311</v>
+        <v>0.525</v>
       </c>
       <c r="H30" t="e">
         <v>#N/A</v>
@@ -1553,10 +1562,10 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -1564,11 +1573,11 @@
       <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="F31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G31" t="e">
-        <v>#N/A</v>
+      <c r="F31" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.363</v>
       </c>
       <c r="H31" t="e">
         <v>#N/A</v>
@@ -1594,10 +1603,10 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
@@ -1605,11 +1614,11 @@
       <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#N/A</v>
+      <c r="F32" t="n">
+        <v>-0.159</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.306</v>
       </c>
       <c r="H32" t="e">
         <v>#N/A</v>
@@ -1635,16 +1644,16 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -1676,16 +1685,16 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
@@ -1717,16 +1726,16 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
@@ -1758,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>63</v>
@@ -1799,10 +1808,10 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>64</v>
@@ -1840,10 +1849,10 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
@@ -1873,6 +1882,88 @@
         <v>#N/A</v>
       </c>
       <c r="M38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/Output/Table_T.xlsx
+++ b/Output/Table_T.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="163">
   <si>
     <t>model</t>
   </si>
@@ -242,7 +242,7 @@
     <t>net_rearing_manipulation:chick_sex_molecu</t>
   </si>
   <si>
-    <t>16.552</t>
+    <t>16.55</t>
   </si>
   <si>
     <t>-0.063</t>
@@ -251,118 +251,124 @@
     <t>0.479</t>
   </si>
   <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>16.922</t>
+  </si>
+  <si>
+    <t>-0.042</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>16.556</t>
+  </si>
+  <si>
+    <t>-0.062</t>
+  </si>
+  <si>
     <t>0.273</t>
   </si>
   <si>
     <t>0.071</t>
   </si>
   <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>6%</t>
-  </si>
-  <si>
-    <t>2%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>16.924</t>
-  </si>
-  <si>
-    <t>-0.042</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.085</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>16.549</t>
-  </si>
-  <si>
-    <t>-0.062</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
     <t>-0.001</t>
   </si>
   <si>
     <t>-0.002</t>
   </si>
   <si>
-    <t>16.303</t>
+    <t>16.301</t>
   </si>
   <si>
     <t>-0.074</t>
   </si>
   <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>-0.155</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>16.645</t>
+  </si>
+  <si>
+    <t>-0.054</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>-0.162</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>16.306</t>
+  </si>
+  <si>
+    <t>-0.077</t>
+  </si>
+  <si>
     <t>0.433</t>
   </si>
   <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>-0.158</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>16.644</t>
-  </si>
-  <si>
-    <t>-0.054</t>
-  </si>
-  <si>
-    <t>0.165</t>
-  </si>
-  <si>
-    <t>-0.165</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>16.309</t>
-  </si>
-  <si>
-    <t>-0.077</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>-0.162</t>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>-0.154</t>
   </si>
   <si>
     <t>-0.017</t>
@@ -371,82 +377,82 @@
     <t>-0.03</t>
   </si>
   <si>
-    <t>16.801</t>
+    <t>16.797</t>
   </si>
   <si>
     <t>-0.051</t>
   </si>
   <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>17.211</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>16.799</t>
+  </si>
+  <si>
+    <t>-0.046</t>
+  </si>
+  <si>
     <t>0.526</t>
   </si>
   <si>
     <t>0.367</t>
   </si>
   <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>17.207</t>
-  </si>
-  <si>
-    <t>0.529</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>9%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>16.798</t>
-  </si>
-  <si>
-    <t>-0.047</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.308</t>
+    <t>0.312</t>
   </si>
   <si>
     <t>0.015</t>
   </si>
   <si>
-    <t>0.026</t>
+    <t>0.025</t>
   </si>
   <si>
     <t>2550</t>
@@ -607,31 +613,31 @@
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
@@ -654,31 +660,31 @@
         <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O3" t="e">
         <v>#N/A</v>
@@ -701,31 +707,31 @@
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O4" t="e">
         <v>#N/A</v>
@@ -748,31 +754,31 @@
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O5" t="e">
         <v>#N/A</v>
@@ -795,31 +801,31 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O6" t="e">
         <v>#N/A</v>
@@ -845,28 +851,28 @@
         <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O7" t="e">
         <v>#N/A</v>
@@ -892,28 +898,28 @@
         <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O8" t="e">
         <v>#N/A</v>
@@ -939,28 +945,28 @@
         <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O9" t="e">
         <v>#N/A</v>
@@ -989,25 +995,25 @@
         <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O10" t="e">
         <v>#N/A</v>
@@ -1036,25 +1042,25 @@
         <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O11" t="e">
         <v>#N/A</v>
@@ -1080,28 +1086,28 @@
         <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O12" t="e">
         <v>#N/A</v>
@@ -1127,28 +1133,28 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O13" t="e">
         <v>#N/A</v>
@@ -1171,31 +1177,31 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O14" t="e">
         <v>#N/A</v>
@@ -1218,31 +1224,31 @@
         <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O15" t="n">
         <v>59.05876313101999</v>
@@ -1265,31 +1271,31 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O16" t="e">
         <v>#N/A</v>
@@ -1312,31 +1318,31 @@
         <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O17" t="e">
         <v>#N/A</v>
@@ -1359,31 +1365,31 @@
         <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O18" t="e">
         <v>#N/A</v>
@@ -1406,31 +1412,31 @@
         <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O19" t="e">
         <v>#N/A</v>
@@ -1456,28 +1462,28 @@
         <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O20" t="e">
         <v>#N/A</v>
@@ -1503,28 +1509,28 @@
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O21" t="e">
         <v>#N/A</v>
@@ -1550,28 +1556,28 @@
         <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O22" t="e">
         <v>#N/A</v>
@@ -1600,25 +1606,25 @@
         <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O23" t="e">
         <v>#N/A</v>
@@ -1644,28 +1650,28 @@
         <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O24" t="e">
         <v>#N/A</v>
@@ -1691,28 +1697,28 @@
         <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O25" t="e">
         <v>#N/A</v>
@@ -1738,28 +1744,28 @@
         <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O26" t="e">
         <v>#N/A</v>
@@ -1782,31 +1788,31 @@
         <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O27" t="e">
         <v>#N/A</v>
@@ -1829,31 +1835,31 @@
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O28" t="n">
         <v>3.979093326669954</v>
@@ -1876,31 +1882,31 @@
         <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O29" t="e">
         <v>#N/A</v>
@@ -1923,31 +1929,31 @@
         <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O30" t="e">
         <v>#N/A</v>
@@ -1967,34 +1973,34 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O31" t="e">
         <v>#N/A</v>
@@ -2014,34 +2020,34 @@
         <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O32" t="e">
         <v>#N/A</v>
@@ -2061,34 +2067,34 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O33" t="e">
         <v>#N/A</v>
@@ -2108,34 +2114,34 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O34" t="e">
         <v>#N/A</v>
@@ -2161,28 +2167,28 @@
         <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O35" t="e">
         <v>#N/A</v>
@@ -2208,28 +2214,28 @@
         <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O36" t="e">
         <v>#N/A</v>
@@ -2255,28 +2261,28 @@
         <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O37" t="e">
         <v>#N/A</v>
@@ -2305,25 +2311,25 @@
         <v>84</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O38" t="e">
         <v>#N/A</v>
@@ -2352,25 +2358,25 @@
         <v>85</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O39" t="e">
         <v>#N/A</v>
@@ -2396,28 +2402,28 @@
         <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O40" t="e">
         <v>#N/A</v>
@@ -2443,28 +2449,28 @@
         <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O41" t="e">
         <v>#N/A</v>
@@ -2487,31 +2493,31 @@
         <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O42" t="e">
         <v>#N/A</v>
